--- a/Excel2FlatBuffers/ExcelTable/DTEntity.xlsx
+++ b/Excel2FlatBuffers/ExcelTable/DTEntity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BoxBoxPro\Excel2FlatBuffers\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08819E91-7150-4E50-AB55-C9D3B6431916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A00EC4-C949-41B4-A617-05AFF9FADC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>skip</t>
   </si>
@@ -45,15 +45,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GoodGuy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>实体Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>资源名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +487,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -508,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -543,10 +547,10 @@
         <v>10001</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
